--- a/data/trans_dic/P55$familiarvive-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiarvive-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1505068073021524</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1950156769294531</v>
+        <v>0.1950156769294532</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.09051429250505401</v>
@@ -713,7 +713,7 @@
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0.03451654784438628</v>
+        <v>0.0355929444737792</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07252627978274198</v>
+        <v>0.06758280528221176</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07830028672550293</v>
+        <v>0.07696702703823073</v>
       </c>
     </row>
     <row r="6">
@@ -749,35 +749,35 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.5742660085535614</v>
+        <v>0.5757156644235796</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.3711571171896254</v>
+        <v>0.3700018667822386</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4970607988793329</v>
+        <v>0.4735038891114391</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6743288132790027</v>
+        <v>0.6812013673813748</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3907511472949027</v>
+        <v>0.3788717104828222</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2787076885686077</v>
+        <v>0.3123258295583052</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5098482555331408</v>
+        <v>0.501616315360596</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4158041796702429</v>
+        <v>0.4087390505281475</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3074677401892244</v>
+        <v>0.306616943216975</v>
       </c>
     </row>
     <row r="7">
@@ -801,7 +801,7 @@
         <v>0.175464104811234</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08492885941460254</v>
+        <v>0.08492885941460253</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3932533652028432</v>
@@ -825,7 +825,7 @@
         <v>0.108043869281253</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0949069356677729</v>
+        <v>0.09490693566777293</v>
       </c>
     </row>
     <row r="8">
@@ -855,19 +855,19 @@
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.02699926084007477</v>
+        <v>0.02731223734270493</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06304982602831948</v>
+        <v>0.05998436993647149</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05210320055029863</v>
+        <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03215814254628215</v>
+        <v>0.02665113668046649</v>
       </c>
     </row>
     <row r="9">
@@ -878,38 +878,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5521156629855036</v>
+        <v>0.5446958725352928</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5358587976898589</v>
+        <v>0.5306589441076345</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4553336643421379</v>
+        <v>0.4627974265359425</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2823543117401869</v>
+        <v>0.2593744792623147</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>0.8281824337658963</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6328108520620215</v>
+        <v>0.6255243291100576</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.2563258163095481</v>
+        <v>0.2992954872854743</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5509817534397213</v>
+        <v>0.5463327762863542</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.427374851431157</v>
+        <v>0.405094285536637</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.330029452011733</v>
+        <v>0.3248926582827088</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2001725282752803</v>
+        <v>0.1949692797599432</v>
       </c>
     </row>
     <row r="10">
@@ -933,7 +933,7 @@
         <v>0.3190757195331907</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2169809716024576</v>
+        <v>0.2169809716024577</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2774282832312168</v>
@@ -968,40 +968,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.282715035739039e-06</v>
+        <v>2.355903414584615e-06</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03889833851205287</v>
+        <v>0.04055651555988198</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.144326023703912</v>
+        <v>0.1249787863738462</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09463144593083299</v>
+        <v>0.09431290565051371</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05159022008258104</v>
+        <v>0.05131028650148377</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0734187331228608</v>
+        <v>0.07934540957786172</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05631293531407724</v>
+        <v>0.057528953624987</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04437059922935883</v>
+        <v>0.04143616308932174</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06265444694904773</v>
+        <v>0.0649473560620506</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1632856954297423</v>
+        <v>0.1586282716512075</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09365218522389979</v>
+        <v>0.09878466744881981</v>
       </c>
     </row>
     <row r="12">
@@ -1012,40 +1012,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2834888237648538</v>
+        <v>0.2944040254983128</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.334549385888314</v>
+        <v>0.3356862979565516</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5832906945165632</v>
+        <v>0.5585057977594349</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3773492689593873</v>
+        <v>0.3804772209848873</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6974702818991375</v>
+        <v>0.6650736598164735</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3851325733278252</v>
+        <v>0.3769837997962751</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5570440472768553</v>
+        <v>0.5986175639864958</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2590093248086924</v>
+        <v>0.2704928265382405</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3582835705608239</v>
+        <v>0.3372357056249551</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2844054444108169</v>
+        <v>0.2907914886261221</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4833306994044099</v>
+        <v>0.482942466089432</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2638093897157472</v>
+        <v>0.2750213648257894</v>
       </c>
     </row>
     <row r="13">
@@ -1069,7 +1069,7 @@
         <v>0.153902718382705</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08756201430818795</v>
+        <v>0.08756201430818798</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2909609372406367</v>
@@ -1081,7 +1081,7 @@
         <v>0.2055058523900689</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2088193235921291</v>
+        <v>0.208819323592129</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2135095643312287</v>
@@ -1104,40 +1104,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1096288184292385</v>
+        <v>0.1059129222935116</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1290800827759139</v>
+        <v>0.1381904639863069</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06549590211058758</v>
+        <v>0.06989423662446732</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04339037495276091</v>
+        <v>0.04580039721622382</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1089117829250604</v>
+        <v>0.1029370763586713</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0506343300573149</v>
+        <v>0.04830284566601199</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07696111503381919</v>
+        <v>0.07673675759596015</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1277618206608817</v>
+        <v>0.1309835933812406</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1305504923929509</v>
+        <v>0.1325488891514493</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1391211008245803</v>
+        <v>0.1342641068949018</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09509099568831515</v>
+        <v>0.09976122753754892</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09117968484246397</v>
+        <v>0.0888505616345136</v>
       </c>
     </row>
     <row r="15">
@@ -1148,40 +1148,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2868893256354509</v>
+        <v>0.2928274593097361</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3612936832964157</v>
+        <v>0.3735556521006617</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2656057093624709</v>
+        <v>0.2972041170876294</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1578795008619733</v>
+        <v>0.1555389209381636</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5126446762206852</v>
+        <v>0.5132274458901318</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4483391420681194</v>
+        <v>0.4289682137378277</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4003665627214888</v>
+        <v>0.4195300546324397</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3111588843651465</v>
+        <v>0.3091098651604892</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3069854903962128</v>
+        <v>0.2949174479599362</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3407643947981606</v>
+        <v>0.3332461058207841</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.277104398295925</v>
+        <v>0.2784379272285826</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1908901728431008</v>
+        <v>0.1855092488769908</v>
       </c>
     </row>
     <row r="16">
@@ -1240,40 +1240,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05150184523684321</v>
+        <v>0.05153870931990746</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06164973218792091</v>
+        <v>0.06195088425231763</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04164301899898436</v>
+        <v>0.03801488958493957</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04386597398438076</v>
+        <v>0.04010810907803042</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09540720994191897</v>
+        <v>0.09676953587316033</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.224368347246927</v>
+        <v>0.2205533562732</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.170371579323191</v>
+        <v>0.1615058842810402</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1369995140487597</v>
+        <v>0.1372719148213566</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09957905969148667</v>
+        <v>0.1019155463819167</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.195187926757376</v>
+        <v>0.1962763150441705</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1252611897072074</v>
+        <v>0.1203558705846209</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1314296173275141</v>
+        <v>0.1265533411357755</v>
       </c>
     </row>
     <row r="18">
@@ -1284,40 +1284,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4536595173631977</v>
+        <v>0.4099913893556468</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3134077166754856</v>
+        <v>0.3052359804088488</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2285922690635423</v>
+        <v>0.2173978916119483</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2206928812168547</v>
+        <v>0.2033654534223825</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3693348761278736</v>
+        <v>0.3858457965360336</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4371771513410067</v>
+        <v>0.4361285249985421</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4452417673771588</v>
+        <v>0.437155568687894</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2535699498164239</v>
+        <v>0.2548699989287803</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3284447184936776</v>
+        <v>0.3243292645084699</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3568179104874813</v>
+        <v>0.3688181257304622</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2990929287556901</v>
+        <v>0.3023272611344291</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2214042519341301</v>
+        <v>0.2197000278346316</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.2744656259705472</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2286746080440749</v>
+        <v>0.2286746080440748</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.3401717372502644</v>
@@ -1376,28 +1376,28 @@
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.2732624429247963</v>
+        <v>0.2584495627204472</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2270408303020623</v>
+        <v>0.2310682022736686</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2007859439114638</v>
+        <v>0.2015294905586153</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1763822885931534</v>
+        <v>0.1802036385013977</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2690644214347269</v>
+        <v>0.2629838524354012</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2270408303020623</v>
+        <v>0.2310682022736686</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2007859439114638</v>
+        <v>0.2015294905586153</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1807945453097708</v>
+        <v>0.1768362537363109</v>
       </c>
     </row>
     <row r="21">
@@ -1412,28 +1412,28 @@
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.4311608100095145</v>
+        <v>0.4306296843805363</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3859732664896652</v>
+        <v>0.3891794496310588</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3631519365388616</v>
+        <v>0.371117654266587</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2882897478167176</v>
+        <v>0.2865383225684717</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.433371816077957</v>
+        <v>0.4238734160527715</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3859732664896652</v>
+        <v>0.3891794496310588</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3631519365388616</v>
+        <v>0.371117654266587</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2807458888783953</v>
+        <v>0.2770657225830231</v>
       </c>
     </row>
     <row r="22">
@@ -1492,40 +1492,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.09366357930322894</v>
+        <v>0.09858490516230982</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1204536448685069</v>
+        <v>0.1207601357499336</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1022095448318936</v>
+        <v>0.09497090901331036</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0783462282624586</v>
+        <v>0.07465927391807056</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2406246001620983</v>
+        <v>0.2438784623876211</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2401872965969423</v>
+        <v>0.2398772822723631</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.209666838925434</v>
+        <v>0.2072235814652644</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1699411062957358</v>
+        <v>0.1725107330485967</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2079075683970177</v>
+        <v>0.207616581250103</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2112812317970813</v>
+        <v>0.2119636516880443</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1845824275835465</v>
+        <v>0.1821210663369065</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1496537289027616</v>
+        <v>0.148754663285512</v>
       </c>
     </row>
     <row r="24">
@@ -1536,40 +1536,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2228291236217313</v>
+        <v>0.226546663000233</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2608977126061344</v>
+        <v>0.2645002553756535</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2341700921726541</v>
+        <v>0.2166472018746338</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1607256798179237</v>
+        <v>0.158646821595167</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3675083390692294</v>
+        <v>0.364882012047018</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3553712280025326</v>
+        <v>0.3471356122326728</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3272725201494495</v>
+        <v>0.3279118082780184</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.235936026796434</v>
+        <v>0.237750480500573</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2985094560080115</v>
+        <v>0.3037472652663393</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3001909897016002</v>
+        <v>0.2962668748254877</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2762041571561735</v>
+        <v>0.2735252313214402</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1981841357077145</v>
+        <v>0.1982265849584908</v>
       </c>
     </row>
     <row r="25">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1087</v>
+        <v>1013</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2153</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="7">
@@ -1883,35 +1883,35 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>4824</v>
+        <v>4836</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>4640</v>
+        <v>4625</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6644</v>
+        <v>6329</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>3261</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5425</v>
+        <v>5480</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5858</v>
+        <v>5680</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>6552</v>
+        <v>7343</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>5945</v>
+        <v>5849</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>6267</v>
+        <v>6161</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>8453</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="8">
@@ -2033,19 +2033,19 @@
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1018</v>
+        <v>969</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>954</v>
+        <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1103</v>
+        <v>914</v>
       </c>
     </row>
     <row r="11">
@@ -2056,38 +2056,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5962</v>
+        <v>5882</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5096</v>
+        <v>5047</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4897</v>
+        <v>4977</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>5297</v>
+        <v>4866</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>4432</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>5574</v>
+        <v>5510</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>3981</v>
+        <v>4648</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8898</v>
+        <v>8823</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>7829</v>
+        <v>7421</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>5764</v>
+        <v>5674</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>6864</v>
+        <v>6685</v>
       </c>
     </row>
     <row r="12">
@@ -2193,37 +2193,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>951</v>
+        <v>991</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2379</v>
+        <v>2060</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2157</v>
+        <v>2149</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1197</v>
+        <v>1293</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1344</v>
+        <v>1373</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1169</v>
+        <v>1091</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2722</v>
+        <v>2821</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5353</v>
+        <v>5200</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4370</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="15">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5108</v>
+        <v>5305</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8175</v>
+        <v>8203</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9614</v>
+        <v>9206</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8600</v>
+        <v>8671</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5803</v>
+        <v>5533</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7318</v>
+        <v>7163</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9080</v>
+        <v>9757</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6184</v>
+        <v>6458</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9436</v>
+        <v>8882</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>12354</v>
+        <v>12631</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>15845</v>
+        <v>15832</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>12310</v>
+        <v>12834</v>
       </c>
     </row>
     <row r="16">
@@ -2370,40 +2370,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7743</v>
+        <v>7480</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8750</v>
+        <v>9368</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2611</v>
+        <v>2786</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3347</v>
+        <v>3533</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2551</v>
+        <v>2411</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1055</v>
+        <v>1006</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2526</v>
+        <v>2519</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5345</v>
+        <v>5480</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>12278</v>
+        <v>12466</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>12330</v>
+        <v>11899</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6912</v>
+        <v>7252</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>10848</v>
+        <v>10571</v>
       </c>
     </row>
     <row r="19">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20262</v>
+        <v>20681</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24492</v>
+        <v>25323</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10588</v>
+        <v>11848</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12179</v>
+        <v>11998</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12007</v>
+        <v>12020</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9342</v>
+        <v>8938</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>13142</v>
+        <v>13771</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13019</v>
+        <v>12933</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>28871</v>
+        <v>27736</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>30201</v>
+        <v>29534</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>20143</v>
+        <v>20240</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>22712</v>
+        <v>22072</v>
       </c>
     </row>
     <row r="20">
@@ -2550,40 +2550,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2221</v>
+        <v>2232</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1971</v>
+        <v>1799</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1442</v>
+        <v>1319</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3474</v>
+        <v>3524</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>18748</v>
+        <v>18429</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9033</v>
+        <v>8563</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>13801</v>
+        <v>13828</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5227</v>
+        <v>5350</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>23343</v>
+        <v>23473</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>12570</v>
+        <v>12078</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>17561</v>
+        <v>16910</v>
       </c>
     </row>
     <row r="23">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7294</v>
+        <v>6592</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11293</v>
+        <v>10998</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>10819</v>
+        <v>10289</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>7257</v>
+        <v>6687</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>13449</v>
+        <v>14050</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>36530</v>
+        <v>36442</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>23607</v>
+        <v>23178</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>25544</v>
+        <v>25675</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>17241</v>
+        <v>17025</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>42672</v>
+        <v>44107</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>30014</v>
+        <v>30338</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>29584</v>
+        <v>29356</v>
       </c>
     </row>
     <row r="24">
@@ -2730,28 +2730,28 @@
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>39363</v>
+        <v>37229</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>32488</v>
+        <v>33065</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>29568</v>
+        <v>29678</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>26826</v>
+        <v>27407</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>39004</v>
+        <v>38123</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>32488</v>
+        <v>33065</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>29568</v>
+        <v>29678</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>27896</v>
+        <v>27285</v>
       </c>
     </row>
     <row r="27">
@@ -2766,28 +2766,28 @@
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>62108</v>
+        <v>62032</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>55231</v>
+        <v>55690</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>53479</v>
+        <v>54652</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>43846</v>
+        <v>43580</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>62823</v>
+        <v>61446</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>55231</v>
+        <v>55690</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>53479</v>
+        <v>54652</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>43317</v>
+        <v>42750</v>
       </c>
     </row>
     <row r="28">
@@ -2890,40 +2890,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>11856</v>
+        <v>12479</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>17606</v>
+        <v>17651</v>
       </c>
       <c r="E30" s="6" t="n">
+        <v>11535</v>
+      </c>
+      <c r="F30" s="6" t="n">
         <v>12414</v>
       </c>
-      <c r="F30" s="6" t="n">
-        <v>13027</v>
-      </c>
       <c r="G30" s="6" t="n">
-        <v>55566</v>
+        <v>56317</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>66907</v>
+        <v>66820</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>55386</v>
+        <v>54741</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>59320</v>
+        <v>60217</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>74327</v>
+        <v>74223</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>89737</v>
+        <v>90027</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>71179</v>
+        <v>70230</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>77122</v>
+        <v>76659</v>
       </c>
     </row>
     <row r="31">
@@ -2934,40 +2934,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>28205</v>
+        <v>28676</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>38135</v>
+        <v>38661</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>28442</v>
+        <v>26314</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>26725</v>
+        <v>26379</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>84866</v>
+        <v>84259</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>98992</v>
+        <v>96698</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>86454</v>
+        <v>86622</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>82357</v>
+        <v>82990</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>106717</v>
+        <v>108590</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>127500</v>
+        <v>125833</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>106511</v>
+        <v>105478</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>102132</v>
+        <v>102153</v>
       </c>
     </row>
     <row r="32">
